--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\WhatsappAutoSender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WhatappAutoSender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93772085-52C7-4796-9031-BE1BF5F34E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430F6FD-7100-4496-BA37-9BCDA810D9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -36,10 +36,16 @@
     <t>Lucky</t>
   </si>
   <si>
-    <t>Ose</t>
-  </si>
-  <si>
-    <t>Gaurav</t>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>6261xxxxxx</t>
+  </si>
+  <si>
+    <t>6263xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,8 +389,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>6265766078</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -394,8 +400,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>6264858827</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>69</v>
